--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFE9F16-03F3-4D97-A5C4-CE07E4C0B6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62144677-1977-4C23-B024-CC8549CAA90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Todo</t>
   </si>
@@ -68,6 +68,46 @@
   </si>
   <si>
     <t>پنل ادمین</t>
+  </si>
+  <si>
+    <t>پیام های جدید انجمن</t>
+  </si>
+  <si>
+    <t>تصاویر</t>
+  </si>
+  <si>
+    <t>لینک های پیشنهادی بلگ</t>
+  </si>
+  <si>
+    <t>متا برای سئو بلگ</t>
+  </si>
+  <si>
+    <t>مطالب مشابه بلاگ</t>
+  </si>
+  <si>
+    <t>توضیحات برند
+جدا از متن توضیحات محصول</t>
+  </si>
+  <si>
+    <t>لینک های پیشنهادی محصول</t>
+  </si>
+  <si>
+    <t>متا برای سئو محصول</t>
+  </si>
+  <si>
+    <t>محصولات در دسته بندی محصول</t>
+  </si>
+  <si>
+    <t>لینک های نقد برررسی محصول</t>
+  </si>
+  <si>
+    <t>صفحه هر محصول انجمن</t>
+  </si>
+  <si>
+    <t>قیمت های اضافی ثابت برای محصولات مانند مالیات یا حمل و نقل</t>
+  </si>
+  <si>
+    <t>انتخاب چندگانه برای دراپ دان</t>
   </si>
 </sst>
 </file>
@@ -83,12 +123,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,9 +149,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -422,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +508,13 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -468,15 +523,64 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62144677-1977-4C23-B024-CC8549CAA90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C108D731-9AA3-4E56-884A-A6B4658A60B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Todo</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>انتخاب چندگانه برای دراپ دان</t>
+  </si>
+  <si>
+    <t>سبد خرید</t>
+  </si>
+  <si>
+    <t>سبد خرید عملیاتی</t>
+  </si>
+  <si>
+    <t>پنل کاربری</t>
+  </si>
+  <si>
+    <t>لاگین از گوگل</t>
   </si>
 </sst>
 </file>
@@ -471,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -513,6 +525,9 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -533,11 +548,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -547,6 +565,9 @@
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -581,6 +602,16 @@
     <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C108D731-9AA3-4E56-884A-A6B4658A60B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AAB504-280C-463F-ADFE-EC23F69BA8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Todo</t>
   </si>
@@ -120,6 +121,27 @@
   </si>
   <si>
     <t>لاگین از گوگل</t>
+  </si>
+  <si>
+    <t>confirm email and phone number</t>
+  </si>
+  <si>
+    <t>ارسال اس ام اس</t>
+  </si>
+  <si>
+    <t>ارسال ایمیل</t>
+  </si>
+  <si>
+    <t>ثبت نام</t>
+  </si>
+  <si>
+    <t>تغییر رمز پروفایل</t>
+  </si>
+  <si>
+    <t>آدرس ها</t>
+  </si>
+  <si>
+    <t>سفارشات</t>
   </si>
 </sst>
 </file>
@@ -483,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,8 +545,8 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
@@ -535,27 +557,27 @@
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -565,34 +587,49 @@
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -604,14 +641,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AAB504-280C-463F-ADFE-EC23F69BA8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C252410-2998-4C19-AAE3-DA2F7C348523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Todo</t>
   </si>
@@ -142,6 +141,24 @@
   </si>
   <si>
     <t>سفارشات</t>
+  </si>
+  <si>
+    <t>زمانی که محصول به سبد خرید اضافه می شود. صفحه اتمام موجودی</t>
+  </si>
+  <si>
+    <t>اطلاعات فاکتور ا و سبد خرید در ادمین</t>
+  </si>
+  <si>
+    <t>کاربران و نقش ها در ادمین</t>
+  </si>
+  <si>
+    <t>نهایی کردن سفارش</t>
+  </si>
+  <si>
+    <t>حذف از سبد خرید</t>
+  </si>
+  <si>
+    <t>سئو در صفحه اصلی</t>
   </si>
 </sst>
 </file>
@@ -505,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,6 +563,9 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -555,15 +575,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -574,7 +594,10 @@
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -583,77 +606,85 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C252410-2998-4C19-AAE3-DA2F7C348523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DCA3F9-EB25-4910-BA6C-A15CA3840482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Todo</t>
   </si>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>سئو در صفحه اصلی</t>
+  </si>
+  <si>
+    <t>حذف آبشاری دسته بندی محصولات و بلاگ</t>
+  </si>
+  <si>
+    <t>مولتی سلکت دراپ دان</t>
+  </si>
+  <si>
+    <t>آیکون سایت در سایز های مختلف</t>
+  </si>
+  <si>
+    <t>جستجو</t>
   </si>
 </sst>
 </file>
@@ -522,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,38 +567,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -594,96 +603,117 @@
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="1" t="s">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="1" t="s">
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1" t="s">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="1" t="s">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DCA3F9-EB25-4910-BA6C-A15CA3840482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DF0B76-F7B5-4235-9303-66ADB3FA6655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Todo</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>جستجو</t>
+  </si>
+  <si>
+    <t>رمز عبور کاربر در ادمین</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -575,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>35</v>
@@ -647,9 +650,6 @@
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
@@ -679,15 +679,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>25</v>
       </c>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DF0B76-F7B5-4235-9303-66ADB3FA6655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753BC181-AC76-496A-A2F5-A1B3AB26EACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
+    <workbookView xWindow="16284" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Todo</t>
   </si>
@@ -174,6 +174,27 @@
   </si>
   <si>
     <t>رمز عبور کاربر در ادمین</t>
+  </si>
+  <si>
+    <t>سفارشات در مدال ثبت شوند</t>
+  </si>
+  <si>
+    <t>ایندکس در ادمین</t>
+  </si>
+  <si>
+    <t>سایز صفحات خالی</t>
+  </si>
+  <si>
+    <t>سئو کامل محصول و بلاگ</t>
+  </si>
+  <si>
+    <t>لینک های پنل ادمی</t>
+  </si>
+  <si>
+    <t>نظرات محصولات و بلاگ و انجمن</t>
+  </si>
+  <si>
+    <t>اطلاعات رابطه دار ها در ایندکس ادمین</t>
   </si>
 </sst>
 </file>
@@ -537,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,58 +596,49 @@
         <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -634,24 +646,21 @@
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -659,40 +668,40 @@
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>25</v>
@@ -721,6 +730,61 @@
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F16" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753BC181-AC76-496A-A2F5-A1B3AB26EACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2547F007-ED2C-4C68-BC0C-AD13697CF745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16284" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Todo</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>اطلاعات رابطه دار ها در ایندکس ادمین</t>
+  </si>
+  <si>
+    <t>تصاویر محصول</t>
+  </si>
+  <si>
+    <t>ایجاد  کاربر در ادمین</t>
   </si>
 </sst>
 </file>
@@ -561,7 +567,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -599,7 +605,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>35</v>
@@ -611,12 +617,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -626,8 +638,11 @@
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>53</v>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -637,19 +652,19 @@
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>49</v>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>50</v>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
@@ -659,7 +674,7 @@
       <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -670,38 +685,35 @@
       <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>25</v>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2547F007-ED2C-4C68-BC0C-AD13697CF745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAAA41B-FE61-47CB-8751-3667FF2915E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Todo</t>
   </si>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>ایجاد  کاربر در ادمین</t>
+  </si>
+  <si>
+    <t>سایت مپ</t>
+  </si>
+  <si>
+    <t>مدل صفحه ی اصلی کامل</t>
+  </si>
+  <si>
+    <t>کتابخانه</t>
+  </si>
+  <si>
+    <t>دانلود محتوای ویدیویی</t>
   </si>
 </sst>
 </file>
@@ -564,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,20 +616,17 @@
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
@@ -626,9 +635,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -638,11 +644,11 @@
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -652,30 +658,21 @@
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -683,48 +680,48 @@
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
@@ -797,6 +794,51 @@
     <row r="27" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAAA41B-FE61-47CB-8751-3667FF2915E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB75A3C-0F4B-4A62-A403-B7E4C1429DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -576,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,11 +616,11 @@
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -630,9 +630,6 @@
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
@@ -644,9 +641,6 @@
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
@@ -839,6 +833,16 @@
     <row r="36" spans="6:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F36" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB75A3C-0F4B-4A62-A403-B7E4C1429DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144C8C68-61B1-4EDA-8757-D48E7AB37016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Todo</t>
   </si>
@@ -191,9 +191,6 @@
     <t>لینک های پنل ادمی</t>
   </si>
   <si>
-    <t>نظرات محصولات و بلاگ و انجمن</t>
-  </si>
-  <si>
     <t>اطلاعات رابطه دار ها در ایندکس ادمین</t>
   </si>
   <si>
@@ -213,6 +210,36 @@
   </si>
   <si>
     <t>دانلود محتوای ویدیویی</t>
+  </si>
+  <si>
+    <t>seen برای نظرات</t>
+  </si>
+  <si>
+    <t>لوگو اینستاگرام</t>
+  </si>
+  <si>
+    <t>منیفست</t>
+  </si>
+  <si>
+    <t>aws</t>
+  </si>
+  <si>
+    <t>وضعیت موجود یا ناموجود در لیست نمایش محصولات</t>
+  </si>
+  <si>
+    <t>انجمن</t>
+  </si>
+  <si>
+    <t>نظرات محصولات و بلاگ و انجمن ادمین</t>
+  </si>
+  <si>
+    <t>مدیریت انجمن محصولات به صورت دستی</t>
+  </si>
+  <si>
+    <t>نام گروه در لیست گروه های محصول در صفحه افزودن محصول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بهینه سازی جستجو برای گروه های دارای محصول </t>
   </si>
 </sst>
 </file>
@@ -578,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37:F38"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,6 +649,9 @@
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
@@ -630,6 +660,9 @@
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
@@ -641,6 +674,9 @@
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
@@ -672,9 +708,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>33</v>
@@ -682,21 +718,21 @@
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>58</v>
       </c>
@@ -706,111 +742,129 @@
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="F15" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="F19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F23" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="6:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="F24" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="6:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="F26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F28" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="6:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="F29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="6:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="F31" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F32" s="1" t="s">
         <v>51</v>
       </c>
@@ -827,17 +881,17 @@
     </row>
     <row r="35" spans="6:6" ht="75" x14ac:dyDescent="0.25">
       <c r="F35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="6:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.25">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144C8C68-61B1-4EDA-8757-D48E7AB37016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D26FDDB-651B-424B-8FDF-E36C5BA236D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -606,7 +606,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,9 +643,6 @@
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
@@ -656,15 +653,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -674,27 +674,33 @@
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
@@ -704,6 +710,9 @@
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
@@ -772,10 +781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>63</v>
-      </c>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F16" s="1" t="s">
         <v>40</v>
       </c>
@@ -788,18 +794,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>67</v>
-      </c>
+    <row r="18" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
+    <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F19" s="1" t="s">
         <v>14</v>
       </c>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D26FDDB-651B-424B-8FDF-E36C5BA236D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9107C13A-613A-4ED7-A6E6-7FAEA26BDF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>Todo</t>
   </si>
@@ -240,6 +240,15 @@
   </si>
   <si>
     <t xml:space="preserve">بهینه سازی جستجو برای گروه های دارای محصول </t>
+  </si>
+  <si>
+    <t>آخرین پست در بنر صفحه اصلی</t>
+  </si>
+  <si>
+    <t>html editor fix</t>
+  </si>
+  <si>
+    <t>فایل آپلو فرام اپرا</t>
   </si>
 </sst>
 </file>
@@ -603,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,11 +652,14 @@
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -663,9 +675,6 @@
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
@@ -677,30 +686,21 @@
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
@@ -710,9 +710,6 @@
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
@@ -782,6 +779,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F16" s="1" t="s">
         <v>40</v>
       </c>
@@ -795,6 +795,9 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>16</v>
       </c>
@@ -897,6 +900,36 @@
     <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F42" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="F43" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F44" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9107C13A-613A-4ED7-A6E6-7FAEA26BDF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3859B24-F46B-4E09-BBE4-08608ECA1A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>Todo</t>
   </si>
@@ -249,6 +249,15 @@
   </si>
   <si>
     <t>فایل آپلو فرام اپرا</t>
+  </si>
+  <si>
+    <t>save and continue</t>
+  </si>
+  <si>
+    <t>دکمه انجمن محصول در صفحه محصول</t>
+  </si>
+  <si>
+    <t>تعداد یازدید ها</t>
   </si>
 </sst>
 </file>
@@ -612,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,28 +661,25 @@
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -686,13 +692,22 @@
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -702,6 +717,9 @@
       <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
@@ -710,6 +728,9 @@
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
@@ -730,9 +751,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>34</v>
@@ -740,23 +761,23 @@
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -764,7 +785,7 @@
     </row>
     <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>20</v>
@@ -772,102 +793,93 @@
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="F16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>66</v>
-      </c>
+    <row r="17" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>71</v>
-      </c>
+    <row r="18" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F23" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:6" ht="60" x14ac:dyDescent="0.25">
       <c r="F24" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:6" ht="75" x14ac:dyDescent="0.25">
       <c r="F26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F28" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:6" ht="75" x14ac:dyDescent="0.25">
       <c r="F29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:6" ht="60" x14ac:dyDescent="0.25">
       <c r="F31" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F32" s="1" t="s">
         <v>51</v>
       </c>
@@ -930,6 +942,16 @@
     <row r="44" spans="6:6" ht="90" x14ac:dyDescent="0.25">
       <c r="F44" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F46" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3859B24-F46B-4E09-BBE4-08608ECA1A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB1542A-D079-424D-AB2A-66BD1AF7CEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>Todo</t>
   </si>
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>تعداد یازدید ها</t>
+  </si>
+  <si>
+    <t>فوتر</t>
+  </si>
+  <si>
+    <t>تصویر داریان در سوشال مدیا</t>
+  </si>
+  <si>
+    <t>تگ ها درست نت</t>
+  </si>
+  <si>
+    <t>تصاویر پنل ادمین</t>
   </si>
 </sst>
 </file>
@@ -621,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,22 +676,16 @@
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -692,9 +698,6 @@
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
@@ -706,9 +709,6 @@
       <c r="D5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
@@ -717,9 +717,6 @@
       <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
@@ -800,86 +797,98 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="F16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F23" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="6:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="F24" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="6:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="F26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F28" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="6:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="F29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="6:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="F31" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F32" s="1" t="s">
         <v>51</v>
       </c>
@@ -952,6 +961,31 @@
     <row r="46" spans="6:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F46" s="1" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F48" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F49" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F50" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB1542A-D079-424D-AB2A-66BD1AF7CEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3ED811-3A45-4F09-901D-741143840C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>Todo</t>
   </si>
@@ -270,6 +270,18 @@
   </si>
   <si>
     <t>تصاویر پنل ادمین</t>
+  </si>
+  <si>
+    <t>home faq about comditions</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>ثبت لاگ بازدید بلاگ و لینک های ورودی</t>
+  </si>
+  <si>
+    <t>courses</t>
   </si>
 </sst>
 </file>
@@ -633,20 +645,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -666,7 +678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -680,7 +692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
@@ -691,7 +703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
@@ -702,7 +714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
@@ -713,7 +725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
@@ -721,18 +733,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
@@ -740,7 +749,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
@@ -748,7 +757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
@@ -756,7 +765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
@@ -764,7 +773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>62</v>
       </c>
@@ -772,7 +781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>70</v>
       </c>
@@ -780,7 +789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>73</v>
       </c>
@@ -788,204 +797,229 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F23" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="F24" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="F26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F28" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="F29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F31" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F32" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F33" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F34" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="6:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="F35" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F36" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F37" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F38" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F39" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F40" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="6:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:6" ht="72" x14ac:dyDescent="0.3">
       <c r="F42" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="6:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="F43" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="6:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="F44" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F45" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F46" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F47" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="6:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="F48" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F49" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F50" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F51" s="1" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F52" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F53" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F54" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="F55" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F56" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3ED811-3A45-4F09-901D-741143840C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81F192B-3C71-43A1-83F3-44535633C83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -647,18 +647,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
-    <col min="3" max="6" width="9.109375" style="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -678,13 +678,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
@@ -692,7 +695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
@@ -703,7 +706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
@@ -714,7 +717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
@@ -725,7 +728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
@@ -733,7 +736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -741,7 +744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
@@ -749,7 +752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
@@ -757,7 +760,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
@@ -765,7 +768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
@@ -773,7 +776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>62</v>
       </c>
@@ -781,7 +784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>70</v>
       </c>
@@ -789,7 +792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>73</v>
       </c>
@@ -797,7 +800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>76</v>
       </c>
@@ -805,7 +808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>78</v>
       </c>
@@ -813,15 +816,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>81</v>
-      </c>
+    <row r="17" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>80</v>
       </c>
@@ -829,7 +829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>82</v>
       </c>
@@ -837,187 +837,187 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F23" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="F24" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="F26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F28" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="F29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="F31" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F32" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="6:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F33" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="6:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F34" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="6:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:6" ht="75" x14ac:dyDescent="0.25">
       <c r="F35" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F36" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F37" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="6:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F40" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="6:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="6:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:6" ht="90" x14ac:dyDescent="0.25">
       <c r="F42" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="6:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:6" ht="105" x14ac:dyDescent="0.25">
       <c r="F43" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="6:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:6" ht="90" x14ac:dyDescent="0.25">
       <c r="F44" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F45" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F46" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F47" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="6:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:6" ht="60" x14ac:dyDescent="0.25">
       <c r="F48" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F49" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F50" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F52" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F54" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="6:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:6" ht="75" x14ac:dyDescent="0.25">
       <c r="F55" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="6:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F56" s="1" t="s">
         <v>58</v>
       </c>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81F192B-3C71-43A1-83F3-44535633C83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B166C4A-4421-4FF5-ABAB-01493566464F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>Todo</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>courses</t>
+  </si>
+  <si>
+    <t>robots.txt</t>
   </si>
 </sst>
 </file>
@@ -645,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,15 +681,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>35</v>
@@ -817,6 +817,9 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1020,6 +1023,11 @@
     <row r="56" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F56" s="1" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F57" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B166C4A-4421-4FF5-ABAB-01493566464F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD545749-48F6-4564-B066-14C74F29639A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t>Todo</t>
   </si>
@@ -285,6 +285,15 @@
   </si>
   <si>
     <t>robots.txt</t>
+  </si>
+  <si>
+    <t>convert to webp</t>
+  </si>
+  <si>
+    <t>https://products.aspose.com/imaging/net/conversion/png-to-webp/</t>
+  </si>
+  <si>
+    <t>id of all images instead of link</t>
   </si>
 </sst>
 </file>
@@ -650,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,6 +697,9 @@
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
@@ -699,6 +711,9 @@
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
@@ -840,7 +855,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
       </c>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD545749-48F6-4564-B066-14C74F29639A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ED299E-03AB-41E6-A63E-C7B87ACFF657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
   <si>
     <t>Todo</t>
   </si>
@@ -294,16 +294,36 @@
   </si>
   <si>
     <t>id of all images instead of link</t>
+  </si>
+  <si>
+    <t>لوگو های سایت کانفیگ</t>
+  </si>
+  <si>
+    <t>سابقه صفحات</t>
+  </si>
+  <si>
+    <t>کتاب خوان</t>
+  </si>
+  <si>
+    <t>افزودن استایل</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -332,10 +352,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -343,8 +364,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -659,18 +684,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -690,14 +715,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -707,7 +732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
@@ -721,10 +746,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
@@ -732,7 +760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
@@ -743,7 +771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
@@ -751,7 +779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -759,7 +787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
@@ -767,7 +795,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
@@ -775,7 +803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
@@ -783,7 +811,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
@@ -791,7 +819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>62</v>
       </c>
@@ -799,7 +827,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>70</v>
       </c>
@@ -807,7 +835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>73</v>
       </c>
@@ -815,7 +843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>76</v>
       </c>
@@ -823,7 +851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>78</v>
       </c>
@@ -831,7 +859,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>83</v>
       </c>
@@ -839,7 +867,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>80</v>
       </c>
@@ -847,7 +875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>82</v>
       </c>
@@ -855,200 +883,212 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="F23" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="F24" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="F26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F28" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="F29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F31" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F32" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F33" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F34" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="6:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="F35" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F36" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F37" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F38" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F39" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F40" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="6:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:6" ht="72" x14ac:dyDescent="0.3">
       <c r="F42" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="6:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="F43" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="6:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="F44" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F45" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F46" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F47" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="6:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="F48" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F49" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F50" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F51" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F52" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F53" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F54" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="6:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:6" ht="72" x14ac:dyDescent="0.3">
       <c r="F55" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F56" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="6:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="F57" s="1" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{ABF3B0EC-843F-4AF8-BFD5-62A5BDD80C4A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ED299E-03AB-41E6-A63E-C7B87ACFF657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCD278F-27EE-4C5A-98B5-24A21B61EA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>Todo</t>
   </si>
@@ -290,9 +290,6 @@
     <t>convert to webp</t>
   </si>
   <si>
-    <t>https://products.aspose.com/imaging/net/conversion/png-to-webp/</t>
-  </si>
-  <si>
     <t>id of all images instead of link</t>
   </si>
   <si>
@@ -306,24 +303,22 @@
   </si>
   <si>
     <t>افزودن استایل</t>
+  </si>
+  <si>
+    <t>واتر مارک</t>
+  </si>
+  <si>
+    <t>مینی مایز استایل های ادمین</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -352,11 +347,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -364,12 +358,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -684,18 +674,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
-    <col min="3" max="6" width="9.109375" style="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -715,71 +705,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>85</v>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -787,7 +786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
@@ -795,7 +794,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
@@ -803,7 +802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
@@ -811,7 +810,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
@@ -819,7 +818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>62</v>
       </c>
@@ -827,7 +826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>70</v>
       </c>
@@ -835,7 +834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>73</v>
       </c>
@@ -843,7 +842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>76</v>
       </c>
@@ -851,244 +850,235 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>89</v>
-      </c>
+    <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>90</v>
-      </c>
+    <row r="23" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F23" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="F24" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="F26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F28" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="F29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="F31" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F32" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="6:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F33" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="6:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F34" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="6:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:6" ht="75" x14ac:dyDescent="0.25">
       <c r="F35" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F36" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F37" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="6:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F40" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="6:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="6:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:6" ht="90" x14ac:dyDescent="0.25">
       <c r="F42" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="6:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:6" ht="105" x14ac:dyDescent="0.25">
       <c r="F43" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="6:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:6" ht="90" x14ac:dyDescent="0.25">
       <c r="F44" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F45" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F46" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F47" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="6:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:6" ht="60" x14ac:dyDescent="0.25">
       <c r="F48" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F49" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F50" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F52" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="6:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F54" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="6:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:6" ht="75" x14ac:dyDescent="0.25">
       <c r="F55" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="6:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F56" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="6:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:6" ht="75" x14ac:dyDescent="0.25">
       <c r="F57" s="1" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{ABF3B0EC-843F-4AF8-BFD5-62A5BDD80C4A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCD278F-27EE-4C5A-98B5-24A21B61EA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A518F5-DB2F-41FD-B119-96BCC9948405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -675,7 +675,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,9 +712,6 @@
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
@@ -781,6 +778,9 @@
     <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A518F5-DB2F-41FD-B119-96BCC9948405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1136B020-2A07-402E-99AD-ACCA4C061E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -672,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="J2" sqref="J2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,36 +716,27 @@
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -757,9 +749,6 @@
       <c r="D5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
@@ -768,8 +757,8 @@
       <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>83</v>
+      <c r="D6" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
@@ -779,9 +768,6 @@
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1076,6 +1062,31 @@
     <row r="57" spans="6:6" ht="75" x14ac:dyDescent="0.25">
       <c r="F57" s="1" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F58" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F59" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F60" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F61" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1136B020-2A07-402E-99AD-ACCA4C061E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FB39C1-56A3-4DFA-B9E5-CD609EC39B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>Todo</t>
   </si>
@@ -310,6 +309,9 @@
   </si>
   <si>
     <t>مینی مایز استایل های ادمین</t>
+  </si>
+  <si>
+    <t>مدت زمان لاگین ماندن</t>
   </si>
 </sst>
 </file>
@@ -673,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:M5"/>
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,6 +1091,11 @@
         <v>88</v>
       </c>
     </row>
+    <row r="63" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F63" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FB39C1-56A3-4DFA-B9E5-CD609EC39B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7527C5C1-4A89-4156-92F7-DDAE146CE687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>Todo</t>
   </si>
@@ -312,6 +312,15 @@
   </si>
   <si>
     <t>مدت زمان لاگین ماندن</t>
+  </si>
+  <si>
+    <t>محصول ناموجود در لیست</t>
+  </si>
+  <si>
+    <t>محصول ناموجود در نمایش محصول</t>
+  </si>
+  <si>
+    <t>تخفیف های ویژه محصوا ناموجود</t>
   </si>
 </sst>
 </file>
@@ -675,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,6 +1105,26 @@
         <v>92</v>
       </c>
     </row>
+    <row r="64" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F64" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F65" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F66" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F67" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7527C5C1-4A89-4156-92F7-DDAE146CE687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD89EBB-5637-4E36-B874-39EF0780C923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>Todo</t>
   </si>
@@ -321,6 +321,12 @@
   </si>
   <si>
     <t>تخفیف های ویژه محصوا ناموجود</t>
+  </si>
+  <si>
+    <t>آدر س صفحات برند ها</t>
+  </si>
+  <si>
+    <t>ثبت برند و محصول جدید توضیح نمی تواند خالی باشد</t>
   </si>
 </sst>
 </file>
@@ -687,7 +693,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,6 +730,9 @@
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
@@ -895,7 +904,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>19</v>
       </c>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD89EBB-5637-4E36-B874-39EF0780C923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23A601A-5CC3-4FD5-A19C-6B555EE2DBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -693,7 +693,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,11 +730,11 @@
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="D2" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23A601A-5CC3-4FD5-A19C-6B555EE2DBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1B8BF4-775E-498A-8CB8-F3C71E455290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -690,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,9 +733,6 @@
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1135,6 +1132,11 @@
     <row r="67" spans="6:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F67" s="1" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F68" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1B8BF4-775E-498A-8CB8-F3C71E455290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A40679E-8A31-4A9E-86FF-BD8BE90336FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
   <si>
     <t>Todo</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>ثبت برند و محصول جدید توضیح نمی تواند خالی باشد</t>
+  </si>
+  <si>
+    <t>old tag pages</t>
   </si>
 </sst>
 </file>
@@ -690,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,6 +733,9 @@
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
@@ -737,9 +743,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
@@ -752,6 +761,9 @@
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
@@ -862,9 +874,6 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="F17" s="1" t="s">
         <v>43</v>
       </c>
@@ -894,17 +903,11 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>97</v>
-      </c>
+    <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1137,6 +1140,11 @@
     <row r="68" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F68" s="1" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F69" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BlogAndShopSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A40679E-8A31-4A9E-86FF-BD8BE90336FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1E0202-2D93-485E-B18F-B2FD886EF187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{29C67DDB-7497-47DA-A63C-07D42FAED0C7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>Todo</t>
   </si>
@@ -330,6 +330,21 @@
   </si>
   <si>
     <t>old tag pages</t>
+  </si>
+  <si>
+    <t>وسط چین بودن عکس های بلاگ</t>
+  </si>
+  <si>
+    <t>مطالب پیشنهادی وبلاگ بیش از 6 است</t>
+  </si>
+  <si>
+    <t>admin panel get global</t>
+  </si>
+  <si>
+    <t>یادآور ثبت محتوا</t>
+  </si>
+  <si>
+    <t>زمانبندی ارسال محتوا</t>
   </si>
 </sst>
 </file>
@@ -695,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D7E5F-9044-4FAA-AA3B-F7EA54359B5C}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +777,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
@@ -775,6 +790,9 @@
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>66</v>
       </c>
@@ -782,9 +800,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>84</v>
@@ -874,6 +895,9 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>43</v>
       </c>
@@ -903,11 +927,17 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>19</v>
       </c>
